--- a/data/PackageDefinedServiceTypeWhitelist.xlsx
+++ b/data/PackageDefinedServiceTypeWhitelist.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingo/Documents/xenSplittingService/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>

--- a/data/PackageDefinedServiceTypeWhitelist.xlsx
+++ b/data/PackageDefinedServiceTypeWhitelist.xlsx
@@ -24,6 +24,143 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>商贸</t>
+    <rPh sb="0" eb="1">
+      <t>shang'mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实业</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输</t>
+    <rPh sb="0" eb="1">
+      <t>yun'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储运</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>科贸</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>文化传播</t>
+  </si>
+  <si>
+    <t>信息科技</t>
+  </si>
+  <si>
+    <t>材料</t>
+    <rPh sb="0" eb="1">
+      <t>cai'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤纸</t>
+  </si>
+  <si>
+    <t>货运</t>
+  </si>
+  <si>
+    <t>安全设备</t>
+  </si>
+  <si>
+    <t>电子科技</t>
+  </si>
+  <si>
+    <t>快件</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>国际贸易</t>
+  </si>
+  <si>
+    <t>投资</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资管理</t>
+  </si>
+  <si>
+    <t>咨询</t>
+  </si>
+  <si>
+    <t>商务咨询</t>
+    <rPh sb="0" eb="1">
+      <t>shang'wu'zi'xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政管理</t>
+    <rPh sb="0" eb="1">
+      <t>xing'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t>工贸</t>
+  </si>
+  <si>
+    <t>服务</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师</t>
+    <rPh sb="0" eb="1">
+      <t>lv'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,12 +481,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
